--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -184,7 +184,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <sz val="9.0"/>
       <color rgb="FF222222"/>
@@ -195,6 +194,7 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <sz val="11.0"/>
       <color rgb="FF222222"/>
@@ -232,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -245,14 +245,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -263,9 +263,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1008,12 +1005,12 @@
       <c r="BC5" s="5">
         <v>10265.0</v>
       </c>
-      <c r="BD5" s="6">
+      <c r="BD5" s="5">
         <v>13716.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5">
@@ -1163,10 +1160,10 @@
       <c r="AX6" s="5">
         <v>2745.0</v>
       </c>
-      <c r="AY6" s="8">
+      <c r="AY6" s="7">
         <v>3675.0</v>
       </c>
-      <c r="AZ6" s="9">
+      <c r="AZ6" s="8">
         <v>4585.0</v>
       </c>
       <c r="BA6" s="5">
@@ -1523,7 +1520,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="5">
@@ -1676,24 +1673,24 @@
       <c r="AY9" s="5">
         <v>797.0</v>
       </c>
-      <c r="AZ9" s="5">
-        <v>1061.0</v>
-      </c>
-      <c r="BA9" s="5">
-        <v>1391.0</v>
-      </c>
-      <c r="BB9" s="9">
-        <v>1543.0</v>
-      </c>
-      <c r="BC9" s="5">
-        <v>1950.0</v>
+      <c r="AZ9" s="9">
+        <v>1140.0</v>
+      </c>
+      <c r="BA9" s="9">
+        <v>1370.0</v>
+      </c>
+      <c r="BB9" s="8">
+        <v>1390.0</v>
+      </c>
+      <c r="BC9" s="9">
+        <v>1540.0</v>
       </c>
       <c r="BD9" s="5">
         <v>1950.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="5">
@@ -1858,8 +1855,8 @@
       <c r="BC10" s="5">
         <v>1706.0</v>
       </c>
-      <c r="BD10" s="5">
-        <v>1705.0</v>
+      <c r="BD10" s="9">
+        <v>2050.0</v>
       </c>
     </row>
     <row r="11">
@@ -2033,7 +2030,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5">
@@ -2203,7 +2200,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="5">
@@ -2543,169 +2540,169 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="R15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="S15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="T15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="U15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="V15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="W15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="X15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="Y15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="Z15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AA15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AB15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AC15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AD15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AE15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AF15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AG15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AH15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AI15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AJ15" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AK15" s="6">
+      <c r="B15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="U15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="V15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="W15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="AK15" s="5">
         <v>2.0</v>
       </c>
-      <c r="AL15" s="6">
+      <c r="AL15" s="5">
         <v>3.0</v>
       </c>
-      <c r="AM15" s="6">
+      <c r="AM15" s="5">
         <v>4.0</v>
       </c>
-      <c r="AN15" s="6">
+      <c r="AN15" s="5">
         <v>4.0</v>
       </c>
-      <c r="AO15" s="6">
+      <c r="AO15" s="5">
         <v>10.0</v>
       </c>
-      <c r="AP15" s="6">
+      <c r="AP15" s="5">
         <v>15.0</v>
       </c>
-      <c r="AQ15" s="6">
+      <c r="AQ15" s="5">
         <v>20.0</v>
       </c>
-      <c r="AR15" s="6">
+      <c r="AR15" s="5">
         <v>23.0</v>
       </c>
-      <c r="AS15" s="6">
+      <c r="AS15" s="5">
         <v>29.0</v>
       </c>
-      <c r="AT15" s="6">
+      <c r="AT15" s="5">
         <v>37.0</v>
       </c>
-      <c r="AU15" s="6">
+      <c r="AU15" s="5">
         <v>92.0</v>
       </c>
-      <c r="AV15" s="6">
+      <c r="AV15" s="5">
         <v>264.0</v>
       </c>
-      <c r="AW15" s="6">
+      <c r="AW15" s="5">
         <v>516.0</v>
       </c>
-      <c r="AX15" s="6">
+      <c r="AX15" s="5">
         <v>676.0</v>
       </c>
-      <c r="AY15" s="6">
+      <c r="AY15" s="5">
         <v>804.0</v>
       </c>
-      <c r="AZ15" s="6">
+      <c r="AZ15" s="5">
         <v>846.0</v>
       </c>
-      <c r="BA15" s="6">
+      <c r="BA15" s="5">
         <v>875.0</v>
       </c>
-      <c r="BB15" s="6">
+      <c r="BB15" s="5">
         <v>932.0</v>
       </c>
-      <c r="BC15" s="6">
+      <c r="BC15" s="5">
         <v>1024.0</v>
       </c>
       <c r="BD15" s="5">
@@ -2713,7 +2710,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="5">
@@ -2883,7 +2880,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="5">
@@ -3053,7 +3050,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="5">
@@ -3393,7 +3390,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="5">
@@ -3733,7 +3730,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="5">
@@ -3903,7 +3900,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="5">
@@ -4073,7 +4070,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="5">
@@ -5263,7 +5260,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="5">
@@ -5433,7 +5430,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="5">
@@ -5773,7 +5770,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="5">
@@ -5943,7 +5940,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="5">
@@ -6113,7 +6110,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="5">
@@ -6453,7 +6450,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="5">
@@ -6623,7 +6620,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="5">
@@ -6963,7 +6960,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="5">
@@ -7643,7 +7640,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="5">
@@ -8315,7 +8312,7 @@
       <c r="BB48" s="5">
         <v>0.0</v>
       </c>
-      <c r="BC48" s="6">
+      <c r="BC48" s="5">
         <v>2.0</v>
       </c>
       <c r="BD48" s="5">
